--- a/files/excelFilesforFigures/Figure7b.xlsx
+++ b/files/excelFilesforFigures/Figure7b.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3029D012-D081-47AC-8499-89E5287C981A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10443B3-E9B2-45FF-93C7-DE8A111191DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -894,7 +894,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>

--- a/files/excelFilesforFigures/Figure7b.xlsx
+++ b/files/excelFilesforFigures/Figure7b.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10443B3-E9B2-45FF-93C7-DE8A111191DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA1A37D-B3C1-41DB-90EF-7307A2B1341C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,131 +28,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>q86</t>
   </si>
   <si>
-    <t>q3</t>
-  </si>
-  <si>
-    <t>q80</t>
-  </si>
-  <si>
-    <t>q37</t>
-  </si>
-  <si>
-    <t>q12</t>
-  </si>
-  <si>
-    <t>q53</t>
-  </si>
-  <si>
-    <t>q28</t>
-  </si>
-  <si>
-    <t>q21</t>
-  </si>
-  <si>
     <t>q96</t>
   </si>
   <si>
-    <t>tenant2</t>
-  </si>
-  <si>
     <t>q58</t>
   </si>
   <si>
-    <t>q11</t>
-  </si>
-  <si>
-    <t>q88</t>
-  </si>
-  <si>
     <t>q18</t>
   </si>
   <si>
-    <t>q90</t>
-  </si>
-  <si>
-    <t>q62</t>
-  </si>
-  <si>
-    <t>Timer-89</t>
-  </si>
-  <si>
-    <t>Timer-90</t>
-  </si>
-  <si>
-    <t>Timer-91</t>
-  </si>
-  <si>
-    <t>Timer-92</t>
-  </si>
-  <si>
-    <t>q39</t>
-  </si>
-  <si>
-    <t>Timer-93</t>
-  </si>
-  <si>
-    <t>Timer-94</t>
-  </si>
-  <si>
-    <t>Timer-95</t>
-  </si>
-  <si>
-    <t>Timer-96</t>
-  </si>
-  <si>
-    <t>Timer-97</t>
-  </si>
-  <si>
-    <t>q31</t>
-  </si>
-  <si>
-    <t>Timer-98</t>
-  </si>
-  <si>
-    <t>tenant3</t>
-  </si>
-  <si>
-    <t>Timer-100</t>
-  </si>
-  <si>
-    <t>Timer-101</t>
-  </si>
-  <si>
-    <t>Timer-102</t>
-  </si>
-  <si>
-    <t>Timer-103</t>
-  </si>
-  <si>
     <t>q89</t>
   </si>
   <si>
-    <t>Timer-104</t>
-  </si>
-  <si>
-    <t>Timer-105</t>
-  </si>
-  <si>
-    <t>Timer-106</t>
-  </si>
-  <si>
-    <t>Timer-107</t>
-  </si>
-  <si>
-    <t>Timer-108</t>
-  </si>
-  <si>
-    <t>q20</t>
-  </si>
-  <si>
-    <t>Timer-109</t>
-  </si>
-  <si>
     <t>Waiting</t>
   </si>
   <si>
@@ -160,6 +52,138 @@
   </si>
   <si>
     <t>Launched</t>
+  </si>
+  <si>
+    <t>tenant4</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>Timer-140</t>
+  </si>
+  <si>
+    <t>q54</t>
+  </si>
+  <si>
+    <t>Timer-141</t>
+  </si>
+  <si>
+    <t>Timer-142</t>
+  </si>
+  <si>
+    <t>q14</t>
+  </si>
+  <si>
+    <t>Timer-143</t>
+  </si>
+  <si>
+    <t>q49</t>
+  </si>
+  <si>
+    <t>Timer-144</t>
+  </si>
+  <si>
+    <t>q8</t>
+  </si>
+  <si>
+    <t>Timer-145</t>
+  </si>
+  <si>
+    <t>q29</t>
+  </si>
+  <si>
+    <t>Timer-146</t>
+  </si>
+  <si>
+    <t>tenant5</t>
+  </si>
+  <si>
+    <t>q15</t>
+  </si>
+  <si>
+    <t>Timer-185</t>
+  </si>
+  <si>
+    <t>q98</t>
+  </si>
+  <si>
+    <t>Timer-186</t>
+  </si>
+  <si>
+    <t>q42</t>
+  </si>
+  <si>
+    <t>Timer-187</t>
+  </si>
+  <si>
+    <t>Timer-188</t>
+  </si>
+  <si>
+    <t>Timer-189</t>
+  </si>
+  <si>
+    <t>q41</t>
+  </si>
+  <si>
+    <t>Timer-190</t>
+  </si>
+  <si>
+    <t>Timer-191</t>
+  </si>
+  <si>
+    <t>Timer-192</t>
+  </si>
+  <si>
+    <t>q55</t>
+  </si>
+  <si>
+    <t>Timer-193</t>
+  </si>
+  <si>
+    <t>q97</t>
+  </si>
+  <si>
+    <t>Timer-194</t>
+  </si>
+  <si>
+    <t>tenant6</t>
+  </si>
+  <si>
+    <t>q78</t>
+  </si>
+  <si>
+    <t>Timer-221</t>
+  </si>
+  <si>
+    <t>q34</t>
+  </si>
+  <si>
+    <t>Timer-222</t>
+  </si>
+  <si>
+    <t>Timer-223</t>
+  </si>
+  <si>
+    <t>q93</t>
+  </si>
+  <si>
+    <t>Timer-224</t>
+  </si>
+  <si>
+    <t>q44</t>
+  </si>
+  <si>
+    <t>Timer-225</t>
+  </si>
+  <si>
+    <t>Timer-226</t>
+  </si>
+  <si>
+    <t>q69</t>
+  </si>
+  <si>
+    <t>Timer-227</t>
   </si>
 </sst>
 </file>
@@ -277,77 +301,92 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Feuil1!$A$2:$B$21</c:f>
+              <c:f>Feuil1!$A$2:$B$25</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="24"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>q62</c:v>
+                    <c:v>q4</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>q54</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>q18</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>q11</c:v>
-                  </c:pt>
                   <c:pt idx="3">
+                    <c:v>q14</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>q49</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>q8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>q29</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>q15</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>q98</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>q42</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>q96</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>q89</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>q41</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>q89</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>q86</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>q55</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>q97</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>q78</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>q34</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>q89</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>q93</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>q44</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
                     <c:v>q58</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>q39</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>q86</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>q53</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>q90</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>q88</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>q31</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>q80</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>q37</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>q28</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>q96</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>q89</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>q21</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>q12</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>q3</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>q86</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>q20</c:v>
+                  <c:pt idx="23">
+                    <c:v>q69</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>tenant2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>tenant3</c:v>
+                    <c:v>tenant4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>tenant5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>tenant6</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -355,69 +394,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$G$2:$G$21</c:f>
+              <c:f>Feuil1!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>8.1249999999999985E-3</c:v>
+                  <c:v>9.5949074074074079E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1365740740740738E-3</c:v>
+                  <c:v>9.6990740740740735E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1365740740740738E-3</c:v>
+                  <c:v>9.7106481481481471E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1481481481481474E-3</c:v>
+                  <c:v>1.0266203703703703E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1712962962962963E-3</c:v>
+                  <c:v>1.0324074074074074E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1828703703703699E-3</c:v>
+                  <c:v>1.0532407407407407E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.1828703703703699E-3</c:v>
+                  <c:v>1.0555555555555554E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1944444444444452E-3</c:v>
+                  <c:v>9.4907407407407406E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2060185185185187E-3</c:v>
+                  <c:v>9.6643518518518511E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.217592592592594E-3</c:v>
+                  <c:v>9.7685185185185184E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.4189814814814813E-3</c:v>
+                  <c:v>9.8842592592592576E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.8819444444444432E-3</c:v>
+                  <c:v>9.9074074074074082E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.2986111111111108E-3</c:v>
+                  <c:v>9.9074074074074082E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.3333333333333332E-3</c:v>
+                  <c:v>9.9768518518518531E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.3449074074074085E-3</c:v>
+                  <c:v>9.9884259259259266E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.773148148148148E-3</c:v>
+                  <c:v>1.0046296296296296E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.7962962962962968E-3</c:v>
+                  <c:v>1.0046296296296296E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8888888888888889E-3</c:v>
+                  <c:v>9.7916666666666655E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.9004629629629625E-3</c:v>
+                  <c:v>9.9537037037037042E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.2939814814814812E-3</c:v>
+                  <c:v>1.0393518518518519E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.045138888888889E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0810185185185185E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.113425925925926E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.119212962962963E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -461,77 +512,92 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Feuil1!$A$2:$B$21</c:f>
+              <c:f>Feuil1!$A$2:$B$25</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="24"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>q62</c:v>
+                    <c:v>q4</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>q54</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>q18</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>q11</c:v>
-                  </c:pt>
                   <c:pt idx="3">
+                    <c:v>q14</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>q49</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>q8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>q29</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>q15</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>q98</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>q42</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>q96</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>q89</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>q41</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>q89</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>q86</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>q55</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>q97</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>q78</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>q34</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>q89</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>q93</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>q44</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
                     <c:v>q58</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>q39</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>q86</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>q53</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>q90</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>q88</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>q31</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>q80</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>q37</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>q28</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>q96</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>q89</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>q21</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>q12</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>q3</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>q86</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>q20</c:v>
+                  <c:pt idx="23">
+                    <c:v>q69</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>tenant2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>tenant3</c:v>
+                    <c:v>tenant4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>tenant5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>tenant6</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -539,69 +605,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$H$2:$H$21</c:f>
+              <c:f>Feuil1!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>3.1250000000000001E-4</c:v>
+                  <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1250000000000001E-4</c:v>
+                  <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4722222222222224E-4</c:v>
+                  <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0648148148148147E-3</c:v>
+                  <c:v>2.7199074074074074E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0648148148148147E-3</c:v>
+                  <c:v>2.8124999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2962962962962963E-3</c:v>
+                  <c:v>3.2870370370370367E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3078703703703705E-3</c:v>
+                  <c:v>3.2754629629629631E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3194444444444443E-3</c:v>
+                  <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3194444444444443E-3</c:v>
+                  <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3078703703703705E-3</c:v>
+                  <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0416666666666667E-4</c:v>
+                  <c:v>1.0532407407407407E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2962962962962963E-3</c:v>
+                  <c:v>1.689814814814815E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2962962962962963E-3</c:v>
+                  <c:v>1.9097222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2962962962962963E-3</c:v>
+                  <c:v>1.8981481481481482E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.2592592592592585E-4</c:v>
+                  <c:v>3.9699074074074072E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.2592592592592585E-4</c:v>
+                  <c:v>8.4953703703703701E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.449074074074075E-4</c:v>
+                  <c:v>2.90162037037037E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.449074074074075E-4</c:v>
+                  <c:v>1.9097222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7453703703703704E-4</c:v>
+                  <c:v>3.2523148148148151E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2291666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1481481481481482E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9120370370370368E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8773148148148143E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -640,77 +718,92 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Feuil1!$A$2:$B$21</c:f>
+              <c:f>Feuil1!$A$2:$B$25</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="24"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>q62</c:v>
+                    <c:v>q4</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>q54</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>q18</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>q11</c:v>
-                  </c:pt>
                   <c:pt idx="3">
+                    <c:v>q14</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>q49</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>q8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>q29</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>q15</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>q98</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>q42</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>q96</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>q89</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>q41</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>q89</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>q86</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>q55</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>q97</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>q78</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>q34</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>q89</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>q93</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>q44</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
                     <c:v>q58</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>q39</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>q86</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>q53</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>q90</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>q88</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>q31</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>q80</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>q37</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>q28</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>q96</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>q89</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>q21</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>q12</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>q3</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>q86</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>q20</c:v>
+                  <c:pt idx="23">
+                    <c:v>q69</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>tenant2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>tenant3</c:v>
+                    <c:v>tenant4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>tenant5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>tenant6</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -718,69 +811,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$2:$I$21</c:f>
+              <c:f>Feuil1!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.1574074074074073E-5</c:v>
+                  <c:v>2.199074074074074E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.4722222222222222E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.291666666666667E-4</c:v>
+                  <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4722222222222222E-5</c:v>
+                  <c:v>1.5046296296296297E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5879629629629635E-4</c:v>
+                  <c:v>2.3148148148148147E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.1574074074074073E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1574074074074073E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1064814814814813E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2106481481481478E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0949074074074073E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0023148148148148E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0254629629629629E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0370370370370373E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9444444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.8379629629629642E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1805555555555556E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0856481481481481E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.689814814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>2.3148148148148147E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3148148148148147E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1574074074074073E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1574074074074073E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.7777777777777778E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.4722222222222222E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.3148148148148147E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3888888888888889E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.3148148148148147E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.4722222222222222E-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.6296296296296294E-5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1574074074074073E-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.3148148148148147E-5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.4722222222222222E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2.3148148148148147E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1574074074074073E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1574074074074073E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3148148148148147E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,7 +938,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -859,8 +964,8 @@
         <c:axId val="1745312799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9.8000000000000032E-3"/>
-          <c:min val="7.0000000000000019E-3"/>
+          <c:max val="2.4000000000000004E-2"/>
+          <c:min val="6.0000000000000019E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1857,72 +1962,72 @@
   <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+      <selection activeCell="A2" sqref="A2:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
-        <v>0.418912037037037</v>
+        <v>0.80216435185185186</v>
       </c>
       <c r="E2" s="2">
-        <v>0.41922453703703705</v>
+        <v>0.80216435185185186</v>
       </c>
       <c r="F2" s="2">
-        <v>0.41923611111111114</v>
+        <v>0.80238425925925927</v>
       </c>
       <c r="G2" s="2">
-        <v>8.1249999999999985E-3</v>
+        <v>9.5949074074074079E-3</v>
       </c>
       <c r="H2" s="2">
-        <v>3.1250000000000001E-4</v>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="I2" s="2">
-        <v>1.1574074074074073E-5</v>
+        <v>2.199074074074074E-4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>0.41892361111111115</v>
+        <v>0.8022569444444444</v>
       </c>
       <c r="E3" s="2">
-        <v>0.41923611111111114</v>
+        <v>0.8022569444444444</v>
       </c>
       <c r="F3" s="2">
-        <v>0.41927083333333331</v>
+        <v>0.80229166666666663</v>
       </c>
       <c r="G3" s="2">
-        <v>8.1365740740740738E-3</v>
+        <v>9.6990740740740735E-3</v>
       </c>
       <c r="H3" s="2">
-        <v>3.1250000000000001E-4</v>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="I3" s="2">
         <v>3.4722222222222222E-5</v>
@@ -1930,473 +2035,580 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>0.41892361111111115</v>
+        <v>0.8022800925925927</v>
       </c>
       <c r="E4" s="2">
-        <v>0.41927083333333331</v>
+        <v>0.8022800925925927</v>
       </c>
       <c r="F4" s="2">
-        <v>0.41998842592592589</v>
+        <v>0.8022800925925927</v>
       </c>
       <c r="G4" s="2">
-        <v>8.1365740740740738E-3</v>
+        <v>9.7106481481481471E-3</v>
       </c>
       <c r="H4" s="2">
-        <v>3.4722222222222224E-4</v>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="I4" s="2">
-        <v>7.291666666666667E-4</v>
+        <v>1.1574074074074073E-5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
-        <v>0.41893518518518519</v>
+        <v>0.80283564814814812</v>
       </c>
       <c r="E5" s="2">
-        <v>0.41998842592592589</v>
+        <v>0.80554398148148154</v>
       </c>
       <c r="F5" s="2">
-        <v>0.42002314814814817</v>
+        <v>0.80568287037037034</v>
       </c>
       <c r="G5" s="2">
-        <v>8.1481481481481474E-3</v>
+        <v>1.0266203703703703E-2</v>
       </c>
       <c r="H5" s="2">
-        <v>1.0648148148148147E-3</v>
+        <v>2.7199074074074074E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>3.4722222222222222E-5</v>
+        <v>1.5046296296296297E-4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>0.41895833333333332</v>
+        <v>0.8028819444444445</v>
       </c>
       <c r="E6" s="2">
-        <v>0.42002314814814817</v>
+        <v>0.80568287037037034</v>
       </c>
       <c r="F6" s="2">
-        <v>0.42038194444444449</v>
+        <v>0.80570601851851853</v>
       </c>
       <c r="G6" s="2">
-        <v>8.1712962962962963E-3</v>
+        <v>1.0324074074074074E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>1.0648148148148147E-3</v>
+        <v>2.8124999999999995E-3</v>
       </c>
       <c r="I6" s="2">
-        <v>3.5879629629629635E-4</v>
+        <v>2.3148148148148147E-5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
-        <v>0.41896990740740742</v>
+        <v>0.8031018518518519</v>
       </c>
       <c r="E7" s="2">
-        <v>0.42026620370370371</v>
+        <v>0.80638888888888882</v>
       </c>
       <c r="F7" s="2">
-        <v>0.42027777777777775</v>
+        <v>0.80640046296296297</v>
       </c>
       <c r="G7" s="2">
-        <v>8.1828703703703699E-3</v>
+        <v>1.0532407407407407E-2</v>
       </c>
       <c r="H7" s="2">
-        <v>1.2962962962962963E-3</v>
+        <v>3.2870370370370367E-3</v>
       </c>
       <c r="I7" s="2">
-        <v>2.3148148148148147E-5</v>
+        <v>1.1574074074074073E-5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.80312499999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.80640046296296297</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.80641203703703701</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.0555555555555554E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3.2754629629629631E-3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1.1574074074074073E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.41896990740740742</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.42027777777777775</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.42028935185185184</v>
-      </c>
-      <c r="G8" s="2">
-        <v>8.1828703703703699E-3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1.3078703703703705E-3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2.3148148148148147E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>0.41898148148148145</v>
+        <v>0.80206018518518529</v>
       </c>
       <c r="E9" s="2">
-        <v>0.42028935185185184</v>
+        <v>0.80206018518518529</v>
       </c>
       <c r="F9" s="2">
-        <v>0.42030092592592588</v>
+        <v>0.8041666666666667</v>
       </c>
       <c r="G9" s="2">
-        <v>8.1944444444444452E-3</v>
+        <v>9.4907407407407406E-3</v>
       </c>
       <c r="H9" s="2">
-        <v>1.3194444444444443E-3</v>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="I9" s="2">
-        <v>1.1574074074074073E-5</v>
+        <v>2.1064814814814813E-3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2">
-        <v>0.4189930555555556</v>
+        <v>0.80223379629629632</v>
       </c>
       <c r="E10" s="2">
-        <v>0.42030092592592588</v>
+        <v>0.80223379629629632</v>
       </c>
       <c r="F10" s="2">
-        <v>0.42040509259259262</v>
+        <v>0.80444444444444441</v>
       </c>
       <c r="G10" s="2">
-        <v>8.2060185185185187E-3</v>
+        <v>9.6643518518518511E-3</v>
       </c>
       <c r="H10" s="2">
-        <v>1.3194444444444443E-3</v>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="I10" s="2">
-        <v>1.1574074074074073E-4</v>
+        <v>2.2106481481481478E-3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
-        <v>0.41900462962962964</v>
+        <v>0.80233796296296289</v>
       </c>
       <c r="E11" s="2">
-        <v>0.42031250000000003</v>
+        <v>0.80233796296296289</v>
       </c>
       <c r="F11" s="2">
-        <v>0.4205787037037037</v>
+        <v>0.80443287037037037</v>
       </c>
       <c r="G11" s="2">
-        <v>8.217592592592594E-3</v>
+        <v>9.7685185185185184E-3</v>
       </c>
       <c r="H11" s="2">
-        <v>1.3078703703703705E-3</v>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="I11" s="2">
-        <v>2.7777777777777778E-4</v>
+        <v>2.0949074074074073E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="2">
-        <v>0.41820601851851852</v>
+        <v>0.80245370370370372</v>
       </c>
       <c r="E12" s="2">
-        <v>0.41820601851851852</v>
+        <v>0.80245370370370372</v>
       </c>
       <c r="F12" s="2">
-        <v>0.41822916666666665</v>
+        <v>0.80444444444444441</v>
       </c>
       <c r="G12" s="2">
-        <v>7.4189814814814813E-3</v>
+        <v>9.8842592592592576E-3</v>
       </c>
       <c r="H12" s="2">
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="I12" s="2">
-        <v>3.4722222222222222E-5</v>
+        <v>2.0023148148148148E-3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="2">
-        <v>0.41866898148148146</v>
+        <v>0.8024768518518518</v>
       </c>
       <c r="E13" s="2">
-        <v>0.4187731481481482</v>
+        <v>0.80353009259259256</v>
       </c>
       <c r="F13" s="2">
-        <v>0.41878472222222224</v>
+        <v>0.80554398148148154</v>
       </c>
       <c r="G13" s="2">
-        <v>7.8819444444444432E-3</v>
+        <v>9.9074074074074082E-3</v>
       </c>
       <c r="H13" s="2">
-        <v>1.0416666666666667E-4</v>
+        <v>1.0532407407407407E-3</v>
       </c>
       <c r="I13" s="2">
-        <v>2.3148148148148147E-5</v>
+        <v>2.0254629629629629E-3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
-        <v>0.41908564814814814</v>
+        <v>0.8024768518518518</v>
       </c>
       <c r="E14" s="2">
-        <v>0.42038194444444449</v>
+        <v>0.8041666666666667</v>
       </c>
       <c r="F14" s="2">
-        <v>0.42050925925925925</v>
+        <v>0.80619212962962961</v>
       </c>
       <c r="G14" s="2">
-        <v>8.2986111111111108E-3</v>
+        <v>9.9074074074074082E-3</v>
       </c>
       <c r="H14" s="2">
-        <v>1.2962962962962963E-3</v>
+        <v>1.689814814814815E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>1.3888888888888889E-4</v>
+        <v>2.0370370370370373E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
-        <v>0.41912037037037037</v>
+        <v>0.80254629629629637</v>
       </c>
       <c r="E15" s="2">
-        <v>0.42040509259259262</v>
+        <v>0.80444444444444441</v>
       </c>
       <c r="F15" s="2">
-        <v>0.42041666666666666</v>
+        <v>0.80638888888888882</v>
       </c>
       <c r="G15" s="2">
-        <v>8.3333333333333332E-3</v>
+        <v>9.9768518518518531E-3</v>
       </c>
       <c r="H15" s="2">
-        <v>1.2962962962962963E-3</v>
+        <v>1.9097222222222222E-3</v>
       </c>
       <c r="I15" s="2">
-        <v>2.3148148148148147E-5</v>
+        <v>1.9444444444444442E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="2">
-        <v>0.4191319444444444</v>
+        <v>0.8025578703703703</v>
       </c>
       <c r="E16" s="2">
-        <v>0.42041666666666666</v>
+        <v>0.80444444444444441</v>
       </c>
       <c r="F16" s="2">
-        <v>0.42045138888888894</v>
+        <v>0.80542824074074071</v>
       </c>
       <c r="G16" s="2">
-        <v>8.3449074074074085E-3</v>
+        <v>9.9884259259259266E-3</v>
       </c>
       <c r="H16" s="2">
-        <v>1.2962962962962963E-3</v>
+        <v>1.8981481481481482E-3</v>
       </c>
       <c r="I16" s="2">
-        <v>3.4722222222222222E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9.8379629629629642E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2">
-        <v>0.41956018518518517</v>
+        <v>0.80261574074074071</v>
       </c>
       <c r="E17" s="2">
-        <v>0.42048611111111112</v>
+        <v>0.80658564814814815</v>
       </c>
       <c r="F17" s="2">
-        <v>0.42053240740740744</v>
+        <v>0.80775462962962974</v>
       </c>
       <c r="G17" s="2">
-        <v>8.773148148148148E-3</v>
+        <v>1.0046296296296296E-2</v>
       </c>
       <c r="H17" s="2">
-        <v>9.2592592592592585E-4</v>
+        <v>3.9699074074074072E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>4.6296296296296294E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1805555555555556E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.80261574074074071</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.81109953703703708</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.81517361111111108</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.0046296296296296E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>8.4953703703703701E-3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>4.0856481481481481E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.80236111111111119</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.83136574074074077</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.83304398148148151</v>
+      </c>
+      <c r="G19" s="2">
+        <v>9.7916666666666655E-3</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2.90162037037037E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.689814814814815E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.80252314814814818</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.80443287037037037</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.80444444444444441</v>
+      </c>
+      <c r="G20" s="2">
+        <v>9.9537037037037042E-3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1.9097222222222222E-3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2.3148148148148147E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.41958333333333336</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.42050925925925925</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.42052083333333329</v>
-      </c>
-      <c r="G18" s="2">
-        <v>8.7962962962962968E-3</v>
-      </c>
-      <c r="H18" s="2">
-        <v>9.2592592592592585E-4</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1.1574074074074073E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.41967592592592595</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.42052083333333329</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.42053240740740744</v>
-      </c>
-      <c r="G19" s="2">
-        <v>8.8888888888888889E-3</v>
-      </c>
-      <c r="H19" s="2">
-        <v>8.449074074074075E-4</v>
-      </c>
-      <c r="I19" s="2">
-        <v>2.3148148148148147E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.41968749999999999</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.42053240740740744</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.42055555555555557</v>
-      </c>
-      <c r="G20" s="2">
-        <v>8.9004629629629625E-3</v>
-      </c>
-      <c r="H20" s="2">
-        <v>8.449074074074075E-4</v>
-      </c>
-      <c r="I20" s="2">
-        <v>3.4722222222222222E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2">
-        <v>0.42008101851851848</v>
+        <v>0.80296296296296299</v>
       </c>
       <c r="E21" s="2">
-        <v>0.42055555555555557</v>
+        <v>0.80620370370370376</v>
       </c>
       <c r="F21" s="2">
-        <v>0.42056712962962961</v>
+        <v>0.80622685185185183</v>
       </c>
       <c r="G21" s="2">
-        <v>9.2939814814814812E-3</v>
+        <v>1.0393518518518519E-2</v>
       </c>
       <c r="H21" s="2">
-        <v>4.7453703703703704E-4</v>
+        <v>3.2523148148148151E-3</v>
       </c>
       <c r="I21" s="2">
         <v>2.3148148148148147E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.80302083333333341</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.80623842592592598</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.80623842592592598</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.045138888888889E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3.2291666666666666E-3</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1.1574074074074073E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.80337962962962972</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.80652777777777773</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.80653935185185188</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.0810185185185185E-2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3.1481481481481482E-3</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1.1574074074074073E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.8037037037037037</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.80761574074074083</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.80762731481481476</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.113425925925926E-2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3.9120370370370368E-3</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2.3148148148148147E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.80374999999999996</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.80762731481481476</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.80762731481481476</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1.119212962962963E-2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3.8773148148148143E-3</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1.1574074074074073E-5</v>
       </c>
     </row>
     <row r="92" spans="18:23" x14ac:dyDescent="0.25">
